--- a/matrix/analysis/conjunct-partial/sizes-ab010-c100-s01.xlsx
+++ b/matrix/analysis/conjunct-partial/sizes-ab010-c100-s01.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/src/repos/Cloud-BDD/matrix/analysis/conjunct-partial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDC00A5C-2C26-AD45-80D5-A79EE1CC64DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{57C99734-01A9-E341-8474-18DF6E10D987}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="24400" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="sizes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -590,6 +590,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Partial Sums Combined Sizes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1251,7 +1276,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2253,7 +2278,7 @@
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
